--- a/实验内容/实验五/软件测试需求及测试用例汇总表/数据库添加部分汇总表.xlsx
+++ b/实验内容/实验五/软件测试需求及测试用例汇总表/数据库添加部分汇总表.xlsx
@@ -39,10 +39,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>配置模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关于数据库增加部分的软件测试需求及测试用例汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>用三种不同类型的属性信息作为测试用例供测试使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库增加模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,7 +533,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -563,60 +563,60 @@
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="5"/>
     </row>
